--- a/Relative_Medicare_Prices.xlsx
+++ b/Relative_Medicare_Prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/Common_Health/Measles_USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{B310C813-F573-4023-81BD-CF523EB48EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98546C8-2018-4488-A814-D8DDF4484337}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{B310C813-F573-4023-81BD-CF523EB48EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0E5A29-B74A-46EE-80A6-A6B86047A0C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C12B3736-E282-42D0-8118-E70B3D8A87F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>Inpatient</t>
   </si>
@@ -436,6 +436,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F6982-19F0-4129-90F8-A4776B839689}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,6 +1482,17 @@
       </c>
       <c r="D51">
         <v>362.41758241758203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
